--- a/biology/Botanique/Blanche_Moreau/Blanche_Moreau.xlsx
+++ b/biology/Botanique/Blanche_Moreau/Blanche_Moreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Blanche Moreau' est un cultivar de rosier mousseux obtenu en France en  1880 par Moreau &amp; Robert. Il est issu de 'Comtesse de Murinais' (rosier mousseux, Vibert 1843[1]) x 'Quatre Saisons Blanche' (rose de Damas)[2].
+'Blanche Moreau' est un cultivar de rosier mousseux obtenu en France en  1880 par Moreau &amp; Robert. Il est issu de 'Comtesse de Murinais' (rosier mousseux, Vibert 1843) x 'Quatre Saisons Blanche' (rose de Damas).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Blanche Moreau' est le rosier mousseux blanc par excellence[3]. Il porte en bouquet des fleurs d'un blanc éclatant, doubles, pleines (26-40 pétales[4]) et odorantes, au joli aspect chiffonné. Leur diamètre est de 6 à 7 cm environ[5]. Leur bouton est recouvert d'une mousse brune[6].
-Le buisson de 'Blanche Moreau', qui s'élève à 150 cm, voire 200 cm[7], est souple et épineux au feuillage dense vert émeraude. Sa floraison n'est pas remontante[3], mais sous des climats doux, il est possible qu'il y ait une faible remontée en septembre[1]. Il supporte des hivers froids à -20°[7], donc il est idéal par exemple en France pour les régions de moyenne montagne. Il doit être taillé fin juin[8] après la floraison, pour harmoniser sa silhouette.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Blanche Moreau' est le rosier mousseux blanc par excellence. Il porte en bouquet des fleurs d'un blanc éclatant, doubles, pleines (26-40 pétales) et odorantes, au joli aspect chiffonné. Leur diamètre est de 6 à 7 cm environ. Leur bouton est recouvert d'une mousse brune.
+Le buisson de 'Blanche Moreau', qui s'élève à 150 cm, voire 200 cm, est souple et épineux au feuillage dense vert émeraude. Sa floraison n'est pas remontante, mais sous des climats doux, il est possible qu'il y ait une faible remontée en septembre. Il supporte des hivers froids à -20°, donc il est idéal par exemple en France pour les régions de moyenne montagne. Il doit être taillé fin juin après la floraison, pour harmoniser sa silhouette.
 </t>
         </is>
       </c>
